--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="592">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -374,6 +374,12 @@
     <t xml:space="preserve">Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correzione configurazione da parte di tecnici backoffice. L'utente procederà a seguito correzione a rivalidare, firmare e pubblicare il documento da lista pazienti dimessi che riporterà la possibilità di effettuare l'operazione per la Lettera di Dimissione Ospedaliera</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSS</t>
   </si>
   <si>
@@ -505,9 +511,6 @@
     <t xml:space="preserve">fb0841f66a63387f7c185491d72c3919</t>
   </si>
   <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
@@ -530,9 +533,6 @@
     <t xml:space="preserve">Timeout invio documento</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_PSS_TIMEOUT</t>
   </si>
   <si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo ripete la chiamata al servizio di validazione ad intervalli regolari finchè non riceve lo status 201 come risposta.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CERT_VAC_TIMEOUT</t>
@@ -1291,6 +1297,9 @@
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-44| Il codice fiscale 'pROVAX00X00X000Y' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correzione dati da parte di tecnici backoffice. L'utente procederà a seguito correzione a rivalidare, firmare e pubblicare il documento da lista pazienti dimessi che riporterà la possibilità di effettuare l'operazione per la Lettera di Dimissione Ospedaliera</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -2172,7 +2181,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,6 +2305,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2336,7 +2352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2466,6 +2482,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="medium"/>
@@ -2502,7 +2525,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2675,7 +2698,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2683,19 +2706,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2707,11 +2726,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2719,16 +2738,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2739,7 +2754,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3080,8 +3095,8 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="N169 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3095,32 +3110,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -3133,12 +3148,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3183,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="N169 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4245,10 +4260,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
       <selection pane="bottomRight" activeCell="N169" activeCellId="0" sqref="N169"/>
     </sheetView>
   </sheetViews>
@@ -4467,7 +4482,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" s="30" customFormat="true" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="30" customFormat="true" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>24</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="n">
         <v>29</v>
       </c>
@@ -4657,9 +4672,15 @@
       <c r="P12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
+      <c r="Q12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T12" s="37"/>
       <c r="U12" s="38"/>
       <c r="V12" s="39"/>
@@ -4675,10 +4696,10 @@
         <v>47</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>53</v>
@@ -4704,7 +4725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="32.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="n">
         <v>31</v>
       </c>
@@ -4712,10 +4733,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>53</v>
@@ -4741,7 +4762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="n">
         <v>32</v>
       </c>
@@ -4749,22 +4770,22 @@
         <v>47</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>60</v>
@@ -4786,9 +4807,15 @@
       <c r="P15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="Q15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="T15" s="37"/>
       <c r="U15" s="38"/>
       <c r="V15" s="39"/>
@@ -4804,10 +4831,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>53</v>
@@ -4841,10 +4868,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>53</v>
@@ -4878,10 +4905,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>53</v>
@@ -4918,10 +4945,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -4944,7 +4971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="n">
         <v>37</v>
       </c>
@@ -4955,21 +4982,21 @@
         <v>55</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="G20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="37" t="s">
@@ -4983,15 +5010,21 @@
       <c r="N20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="48" t="s">
-        <v>84</v>
+      <c r="O20" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="P20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="Q20" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T20" s="37"/>
       <c r="U20" s="38"/>
       <c r="V20" s="39"/>
@@ -5007,13 +5040,13 @@
         <v>47</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
@@ -5036,7 +5069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="150.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="n">
         <v>39</v>
       </c>
@@ -5044,13 +5077,13 @@
         <v>47</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -5073,7 +5106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="n">
         <v>40</v>
       </c>
@@ -5081,22 +5114,22 @@
         <v>47</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>60</v>
@@ -5112,15 +5145,21 @@
       <c r="N23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="48" t="s">
-        <v>84</v>
+      <c r="O23" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
+        <v>61</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>64</v>
+      </c>
       <c r="T23" s="37"/>
       <c r="U23" s="38"/>
       <c r="V23" s="39"/>
@@ -5136,13 +5175,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -5173,13 +5212,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
@@ -5210,13 +5249,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
@@ -5250,10 +5289,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
@@ -5278,7 +5317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="n">
         <v>45</v>
       </c>
@@ -5289,10 +5328,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>96</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
@@ -5310,18 +5349,20 @@
         <v>61</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P28" s="37" t="s">
         <v>61</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="R28" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="37"/>
+      <c r="S28" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T28" s="37"/>
       <c r="U28" s="38" t="s">
         <v>61</v>
@@ -5339,13 +5380,13 @@
         <v>47</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>100</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
@@ -5370,7 +5411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="n">
         <v>47</v>
       </c>
@@ -5378,13 +5419,13 @@
         <v>47</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>101</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
@@ -5409,7 +5450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" s="50" customFormat="true" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="49" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="n">
         <v>48</v>
       </c>
@@ -5417,17 +5458,17 @@
         <v>47</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="49"/>
+      <c r="H31" s="48"/>
       <c r="I31" s="42"/>
       <c r="J31" s="37" t="s">
         <v>61</v>
@@ -5441,18 +5482,20 @@
         <v>61</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P31" s="37" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="R31" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="S31" s="37"/>
+      <c r="S31" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="T31" s="37"/>
       <c r="U31" s="38" t="s">
         <v>61</v>
@@ -5470,13 +5513,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
@@ -5509,13 +5552,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
@@ -5548,13 +5591,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
@@ -5590,10 +5633,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
@@ -5627,10 +5670,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
@@ -5664,10 +5707,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
@@ -5701,10 +5744,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
@@ -5738,10 +5781,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
@@ -5775,10 +5818,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
@@ -5812,10 +5855,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
@@ -5838,7 +5881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="n">
         <v>62</v>
       </c>
@@ -5849,10 +5892,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
@@ -5875,7 +5918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="n">
         <v>64</v>
       </c>
@@ -5886,22 +5929,22 @@
         <v>55</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="47" t="s">
+      <c r="G43" s="36" t="s">
         <v>127</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="J43" s="37" t="s">
         <v>61</v>
@@ -5914,17 +5957,21 @@
       <c r="N43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O43" s="47" t="s">
-        <v>128</v>
+      <c r="O43" s="44" t="s">
+        <v>130</v>
       </c>
       <c r="P43" s="37" t="s">
         <v>61</v>
       </c>
       <c r="Q43" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
+      <c r="S43" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T43" s="37"/>
       <c r="U43" s="38"/>
       <c r="V43" s="39"/>
@@ -5932,7 +5979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="n">
         <v>66</v>
       </c>
@@ -5943,22 +5990,22 @@
         <v>55</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="47" t="s">
         <v>134</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="J44" s="37" t="s">
         <v>61</v>
@@ -5971,17 +6018,21 @@
       <c r="N44" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O44" s="47" t="s">
-        <v>135</v>
+      <c r="O44" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="P44" s="37" t="s">
         <v>61</v>
       </c>
       <c r="Q44" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R44" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
+      <c r="S44" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T44" s="37"/>
       <c r="U44" s="38"/>
       <c r="V44" s="39"/>
@@ -5989,7 +6040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="n">
         <v>67</v>
       </c>
@@ -6000,22 +6051,22 @@
         <v>55</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="47" t="s">
         <v>141</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="J45" s="37" t="s">
         <v>61</v>
@@ -6028,17 +6079,21 @@
       <c r="N45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O45" s="47" t="s">
-        <v>142</v>
+      <c r="O45" s="44" t="s">
+        <v>144</v>
       </c>
       <c r="P45" s="37" t="s">
         <v>61</v>
       </c>
       <c r="Q45" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
+      <c r="S45" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T45" s="37"/>
       <c r="U45" s="38"/>
       <c r="V45" s="39"/>
@@ -6046,7 +6101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="n">
         <v>68</v>
       </c>
@@ -6057,22 +6112,22 @@
         <v>55</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I46" s="47" t="s">
         <v>148</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="J46" s="37" t="s">
         <v>61</v>
@@ -6085,8 +6140,8 @@
       <c r="N46" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O46" s="47" t="s">
-        <v>149</v>
+      <c r="O46" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="P46" s="37" t="s">
         <v>61</v>
@@ -6094,8 +6149,12 @@
       <c r="Q46" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
+      <c r="R46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S46" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="T46" s="37"/>
       <c r="U46" s="38"/>
       <c r="V46" s="39"/>
@@ -6103,7 +6162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="464.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="n">
         <v>69</v>
       </c>
@@ -6114,22 +6173,22 @@
         <v>55</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="I47" s="47" t="s">
         <v>155</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="J47" s="37" t="s">
         <v>61</v>
@@ -6142,8 +6201,8 @@
       <c r="N47" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O47" s="51" t="s">
-        <v>156</v>
+      <c r="O47" s="50" t="s">
+        <v>158</v>
       </c>
       <c r="P47" s="37" t="s">
         <v>61</v>
@@ -6160,7 +6219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="n">
         <v>70</v>
       </c>
@@ -6171,22 +6230,22 @@
         <v>55</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="47" t="s">
         <v>162</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>164</v>
       </c>
       <c r="J48" s="37" t="s">
         <v>61</v>
@@ -6199,8 +6258,8 @@
       <c r="N48" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O48" s="47" t="s">
-        <v>163</v>
+      <c r="O48" s="44" t="s">
+        <v>165</v>
       </c>
       <c r="P48" s="37" t="s">
         <v>61</v>
@@ -6208,7 +6267,9 @@
       <c r="Q48" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R48" s="37"/>
+      <c r="R48" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="38"/>
@@ -6217,7 +6278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="n">
         <v>71</v>
       </c>
@@ -6228,22 +6289,22 @@
         <v>55</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="I49" s="47" t="s">
         <v>169</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="J49" s="37" t="s">
         <v>61</v>
@@ -6256,8 +6317,8 @@
       <c r="N49" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="47" t="s">
-        <v>170</v>
+      <c r="O49" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="P49" s="37" t="s">
         <v>61</v>
@@ -6265,7 +6326,9 @@
       <c r="Q49" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R49" s="37"/>
+      <c r="R49" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="38"/>
@@ -6274,7 +6337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="n">
         <v>72</v>
       </c>
@@ -6285,22 +6348,22 @@
         <v>55</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="47" t="s">
         <v>176</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="J50" s="37" t="s">
         <v>61</v>
@@ -6313,8 +6376,8 @@
       <c r="N50" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O50" s="47" t="s">
-        <v>177</v>
+      <c r="O50" s="44" t="s">
+        <v>179</v>
       </c>
       <c r="P50" s="37" t="s">
         <v>61</v>
@@ -6322,7 +6385,9 @@
       <c r="Q50" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="37"/>
+      <c r="R50" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="38"/>
@@ -6331,7 +6396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="n">
         <v>73</v>
       </c>
@@ -6342,22 +6407,22 @@
         <v>55</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="I51" s="47" t="s">
         <v>183</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="J51" s="37" t="s">
         <v>61</v>
@@ -6370,8 +6435,8 @@
       <c r="N51" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O51" s="47" t="s">
-        <v>184</v>
+      <c r="O51" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="P51" s="37" t="s">
         <v>61</v>
@@ -6379,7 +6444,9 @@
       <c r="Q51" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R51" s="37"/>
+      <c r="R51" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="38"/>
@@ -6388,7 +6455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="n">
         <v>74</v>
       </c>
@@ -6399,22 +6466,22 @@
         <v>55</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H52" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="47" t="s">
         <v>190</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="J52" s="37" t="s">
         <v>61</v>
@@ -6427,8 +6494,8 @@
       <c r="N52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O52" s="47" t="s">
-        <v>191</v>
+      <c r="O52" s="44" t="s">
+        <v>193</v>
       </c>
       <c r="P52" s="37" t="s">
         <v>61</v>
@@ -6436,7 +6503,9 @@
       <c r="Q52" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="R52" s="37"/>
+      <c r="R52" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="38"/>
@@ -6453,13 +6522,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -6490,13 +6559,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -6527,13 +6596,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
@@ -6564,13 +6633,13 @@
         <v>47</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
@@ -6601,13 +6670,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
@@ -6638,13 +6707,13 @@
         <v>47</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -6675,13 +6744,13 @@
         <v>47</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
@@ -6712,13 +6781,13 @@
         <v>47</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
@@ -6749,13 +6818,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -6786,13 +6855,13 @@
         <v>47</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
@@ -6823,13 +6892,13 @@
         <v>47</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -6860,13 +6929,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
@@ -6897,13 +6966,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
@@ -6934,13 +7003,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
@@ -6971,13 +7040,13 @@
         <v>47</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
@@ -7008,13 +7077,13 @@
         <v>47</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
@@ -7045,13 +7114,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
@@ -7082,13 +7151,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
@@ -7119,13 +7188,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
@@ -7156,13 +7225,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
@@ -7193,13 +7262,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
@@ -7230,13 +7299,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
@@ -7267,13 +7336,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
@@ -7304,13 +7373,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
@@ -7341,13 +7410,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
@@ -7378,13 +7447,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
@@ -7415,13 +7484,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
@@ -7452,13 +7521,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
@@ -7489,13 +7558,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
@@ -7526,13 +7595,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
@@ -7563,13 +7632,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
@@ -7600,13 +7669,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
@@ -7637,13 +7706,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
@@ -7674,13 +7743,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
@@ -7711,13 +7780,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
@@ -7748,13 +7817,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
@@ -7785,13 +7854,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
@@ -7822,13 +7891,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
@@ -7859,13 +7928,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
@@ -7896,13 +7965,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
@@ -7933,13 +8002,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
@@ -7970,13 +8039,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
@@ -8007,13 +8076,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
@@ -8044,13 +8113,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
@@ -8081,13 +8150,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
@@ -8118,13 +8187,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
@@ -8155,13 +8224,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
@@ -8192,13 +8261,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
@@ -8229,13 +8298,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
@@ -8266,13 +8335,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
@@ -8303,13 +8372,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
@@ -8340,13 +8409,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
@@ -8377,13 +8446,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
@@ -8414,13 +8483,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
@@ -8451,13 +8520,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F107" s="36"/>
       <c r="G107" s="36"/>
@@ -8488,13 +8557,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="36"/>
@@ -8525,13 +8594,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
@@ -8562,13 +8631,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
@@ -8599,13 +8668,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
@@ -8636,13 +8705,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F112" s="36"/>
       <c r="G112" s="36"/>
@@ -8673,13 +8742,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F113" s="36"/>
       <c r="G113" s="36"/>
@@ -8710,13 +8779,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F114" s="36"/>
       <c r="G114" s="36"/>
@@ -8739,7 +8808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="n">
         <v>146</v>
       </c>
@@ -8747,13 +8816,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="36"/>
@@ -8776,7 +8845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" s="50" customFormat="true" ht="100.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" s="49" customFormat="true" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="n">
         <v>152</v>
       </c>
@@ -8784,31 +8853,31 @@
         <v>47</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="H116" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="I116" s="52" t="s">
         <v>323</v>
+      </c>
+      <c r="H116" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="I116" s="51" t="s">
+        <v>325</v>
       </c>
       <c r="J116" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K116" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L116" s="37"/>
       <c r="M116" s="37" t="s">
@@ -8817,15 +8886,21 @@
       <c r="N116" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O116" s="53" t="s">
-        <v>325</v>
+      <c r="O116" s="52" t="s">
+        <v>327</v>
       </c>
       <c r="P116" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q116" s="37"/>
-      <c r="R116" s="37"/>
-      <c r="S116" s="37"/>
+      <c r="Q116" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R116" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S116" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T116" s="37"/>
       <c r="U116" s="38"/>
       <c r="V116" s="39"/>
@@ -8833,7 +8908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" s="50" customFormat="true" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="49" customFormat="true" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="n">
         <v>154</v>
       </c>
@@ -8841,31 +8916,31 @@
         <v>47</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F117" s="36" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="H117" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="I117" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="H117" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="I117" s="51" t="s">
+        <v>334</v>
       </c>
       <c r="J117" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K117" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L117" s="37"/>
       <c r="M117" s="37" t="s">
@@ -8874,15 +8949,21 @@
       <c r="N117" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O117" s="54" t="s">
-        <v>135</v>
+      <c r="O117" s="53" t="s">
+        <v>137</v>
       </c>
       <c r="P117" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q117" s="37"/>
-      <c r="R117" s="37"/>
-      <c r="S117" s="37"/>
+      <c r="Q117" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R117" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S117" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T117" s="37"/>
       <c r="U117" s="38"/>
       <c r="V117" s="39"/>
@@ -8890,7 +8971,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="n">
         <v>155</v>
       </c>
@@ -8898,31 +8979,31 @@
         <v>47</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="H118" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="I118" s="48" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="H118" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="I118" s="43" t="s">
+        <v>340</v>
       </c>
       <c r="J118" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K118" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37" t="s">
@@ -8931,15 +9012,21 @@
       <c r="N118" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O118" s="48" t="s">
-        <v>142</v>
+      <c r="O118" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="P118" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q118" s="37"/>
-      <c r="R118" s="37"/>
-      <c r="S118" s="37"/>
+      <c r="Q118" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R118" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S118" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T118" s="37"/>
       <c r="U118" s="38"/>
       <c r="V118" s="39"/>
@@ -8947,7 +9034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="n">
         <v>156</v>
       </c>
@@ -8955,31 +9042,31 @@
         <v>47</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="H119" s="55" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="H119" s="54" t="s">
+        <v>345</v>
       </c>
       <c r="I119" s="44" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J119" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K119" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L119" s="37"/>
       <c r="M119" s="37" t="s">
@@ -8989,14 +9076,20 @@
         <v>61</v>
       </c>
       <c r="O119" s="44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P119" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q119" s="37"/>
-      <c r="R119" s="37"/>
-      <c r="S119" s="37"/>
+      <c r="Q119" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R119" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S119" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T119" s="37"/>
       <c r="U119" s="38"/>
       <c r="V119" s="39"/>
@@ -9004,7 +9097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33" t="n">
         <v>159</v>
       </c>
@@ -9012,31 +9105,31 @@
         <v>47</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="H120" s="55" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="H120" s="54" t="s">
+        <v>351</v>
       </c>
       <c r="I120" s="44" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J120" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K120" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L120" s="37"/>
       <c r="M120" s="37" t="s">
@@ -9045,15 +9138,21 @@
       <c r="N120" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O120" s="56" t="s">
-        <v>350</v>
+      <c r="O120" s="50" t="s">
+        <v>353</v>
       </c>
       <c r="P120" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q120" s="37"/>
-      <c r="R120" s="37"/>
-      <c r="S120" s="37"/>
+      <c r="Q120" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R120" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S120" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T120" s="37"/>
       <c r="U120" s="38"/>
       <c r="V120" s="39"/>
@@ -9061,7 +9160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33" t="n">
         <v>160</v>
       </c>
@@ -9069,31 +9168,31 @@
         <v>47</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F121" s="36" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="H121" s="55" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="H121" s="54" t="s">
+        <v>358</v>
       </c>
       <c r="I121" s="44" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J121" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K121" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L121" s="37"/>
       <c r="M121" s="37" t="s">
@@ -9103,14 +9202,20 @@
         <v>61</v>
       </c>
       <c r="O121" s="44" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P121" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q121" s="37"/>
-      <c r="R121" s="37"/>
-      <c r="S121" s="37"/>
+      <c r="Q121" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R121" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S121" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T121" s="37"/>
       <c r="U121" s="38"/>
       <c r="V121" s="39"/>
@@ -9118,7 +9223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="297" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="n">
         <v>161</v>
       </c>
@@ -9126,31 +9231,31 @@
         <v>47</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G122" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="H122" s="55" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="H122" s="54" t="s">
+        <v>365</v>
       </c>
       <c r="I122" s="44" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="J122" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K122" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L122" s="37"/>
       <c r="M122" s="37" t="s">
@@ -9159,15 +9264,21 @@
       <c r="N122" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O122" s="56" t="s">
-        <v>364</v>
+      <c r="O122" s="50" t="s">
+        <v>367</v>
       </c>
       <c r="P122" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q122" s="37"/>
-      <c r="R122" s="37"/>
-      <c r="S122" s="37"/>
+      <c r="Q122" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R122" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S122" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T122" s="37"/>
       <c r="U122" s="38"/>
       <c r="V122" s="39"/>
@@ -9175,7 +9286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33" t="n">
         <v>162</v>
       </c>
@@ -9183,25 +9294,25 @@
         <v>47</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="H123" s="55" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="H123" s="54" t="s">
+        <v>372</v>
       </c>
       <c r="I123" s="44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J123" s="37" t="s">
         <v>61</v>
@@ -9215,14 +9326,20 @@
         <v>61</v>
       </c>
       <c r="O123" s="44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P123" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q123" s="37"/>
-      <c r="R123" s="37"/>
-      <c r="S123" s="37"/>
+      <c r="Q123" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R123" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S123" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T123" s="37"/>
       <c r="U123" s="38"/>
       <c r="V123" s="39"/>
@@ -9230,7 +9347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="33" t="n">
         <v>163</v>
       </c>
@@ -9238,31 +9355,31 @@
         <v>47</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="H124" s="55" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+      <c r="H124" s="54" t="s">
+        <v>379</v>
       </c>
       <c r="I124" s="44" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="J124" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K124" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L124" s="37"/>
       <c r="M124" s="37" t="s">
@@ -9272,14 +9389,20 @@
         <v>61</v>
       </c>
       <c r="O124" s="44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P124" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q124" s="37"/>
-      <c r="R124" s="37"/>
-      <c r="S124" s="37"/>
+      <c r="Q124" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R124" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S124" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T124" s="37"/>
       <c r="U124" s="38"/>
       <c r="V124" s="39"/>
@@ -9287,7 +9410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="n">
         <v>164</v>
       </c>
@@ -9295,23 +9418,23 @@
         <v>47</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
-      <c r="H125" s="49"/>
+      <c r="H125" s="48"/>
       <c r="I125" s="42"/>
       <c r="J125" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K125" s="37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L125" s="37"/>
       <c r="M125" s="37"/>
@@ -9328,7 +9451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33" t="n">
         <v>165</v>
       </c>
@@ -9336,23 +9459,23 @@
         <v>47</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
-      <c r="H126" s="49"/>
+      <c r="H126" s="48"/>
       <c r="I126" s="42"/>
       <c r="J126" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K126" s="37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L126" s="37"/>
       <c r="M126" s="37"/>
@@ -9369,7 +9492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33" t="n">
         <v>166</v>
       </c>
@@ -9377,23 +9500,23 @@
         <v>47</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
-      <c r="H127" s="49"/>
+      <c r="H127" s="48"/>
       <c r="I127" s="42"/>
       <c r="J127" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K127" s="37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L127" s="37"/>
       <c r="M127" s="37"/>
@@ -9410,7 +9533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="n">
         <v>167</v>
       </c>
@@ -9418,17 +9541,17 @@
         <v>47</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="49"/>
+      <c r="H128" s="48"/>
       <c r="I128" s="42"/>
       <c r="J128" s="37"/>
       <c r="K128" s="37"/>
@@ -9447,7 +9570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="n">
         <v>168</v>
       </c>
@@ -9455,31 +9578,31 @@
         <v>47</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F129" s="36" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H129" s="44" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I129" s="44" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J129" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K129" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L129" s="37"/>
       <c r="M129" s="37" t="s">
@@ -9489,7 +9612,7 @@
         <v>61</v>
       </c>
       <c r="O129" s="44" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P129" s="37" t="s">
         <v>61</v>
@@ -9504,7 +9627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33" t="n">
         <v>169</v>
       </c>
@@ -9512,31 +9635,31 @@
         <v>47</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G130" s="36" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H130" s="44" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I130" s="44" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J130" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K130" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L130" s="37"/>
       <c r="M130" s="37" t="s">
@@ -9546,14 +9669,20 @@
         <v>61</v>
       </c>
       <c r="O130" s="44" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P130" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q130" s="37"/>
-      <c r="R130" s="37"/>
-      <c r="S130" s="37"/>
+      <c r="Q130" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R130" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S130" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T130" s="37"/>
       <c r="U130" s="38"/>
       <c r="V130" s="39"/>
@@ -9569,13 +9698,13 @@
         <v>47</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
@@ -9606,13 +9735,13 @@
         <v>47</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F132" s="36"/>
       <c r="G132" s="36"/>
@@ -9643,13 +9772,13 @@
         <v>47</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="36"/>
@@ -9680,13 +9809,13 @@
         <v>47</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="36"/>
@@ -9717,13 +9846,13 @@
         <v>47</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="36"/>
@@ -9754,13 +9883,13 @@
         <v>47</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E136" s="34" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="36"/>
@@ -9791,13 +9920,13 @@
         <v>47</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E137" s="34" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="36"/>
@@ -9828,13 +9957,13 @@
         <v>47</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="36"/>
@@ -9865,13 +9994,13 @@
         <v>47</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="36"/>
@@ -9902,13 +10031,13 @@
         <v>47</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="36"/>
@@ -9939,13 +10068,13 @@
         <v>47</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="36"/>
@@ -9976,13 +10105,13 @@
         <v>47</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F142" s="36"/>
       <c r="G142" s="36"/>
@@ -10013,13 +10142,13 @@
         <v>47</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F143" s="36"/>
       <c r="G143" s="36"/>
@@ -10050,13 +10179,13 @@
         <v>47</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F144" s="36"/>
       <c r="G144" s="36"/>
@@ -10087,13 +10216,13 @@
         <v>47</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
@@ -10127,10 +10256,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
@@ -10164,10 +10293,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
@@ -10198,13 +10327,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F148" s="36"/>
       <c r="G148" s="36"/>
@@ -10235,13 +10364,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E149" s="34" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F149" s="36"/>
       <c r="G149" s="36"/>
@@ -10272,13 +10401,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F150" s="36"/>
       <c r="G150" s="36"/>
@@ -10309,10 +10438,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E151" s="41" t="s">
         <v>53</v>
@@ -10346,13 +10475,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F152" s="36"/>
       <c r="G152" s="36"/>
@@ -10383,13 +10512,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F153" s="36"/>
       <c r="G153" s="36"/>
@@ -10420,13 +10549,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F154" s="36"/>
       <c r="G154" s="36"/>
@@ -10457,13 +10586,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="36"/>
@@ -10494,13 +10623,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F156" s="36"/>
       <c r="G156" s="36"/>
@@ -10531,13 +10660,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="36"/>
@@ -10568,13 +10697,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="36"/>
@@ -10605,13 +10734,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="36"/>
@@ -10642,13 +10771,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F160" s="36"/>
       <c r="G160" s="36"/>
@@ -10679,13 +10808,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F161" s="36"/>
       <c r="G161" s="36"/>
@@ -10716,13 +10845,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="36"/>
@@ -10753,13 +10882,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E163" s="34" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F163" s="36"/>
       <c r="G163" s="36"/>
@@ -10790,13 +10919,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="36"/>
@@ -10827,13 +10956,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E165" s="34" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F165" s="36"/>
       <c r="G165" s="36"/>
@@ -10856,7 +10985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="33" t="n">
         <v>448</v>
       </c>
@@ -10864,25 +10993,25 @@
         <v>47</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F166" s="36" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="G166" s="36" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="H166" s="44" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="I166" s="44" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J166" s="37" t="s">
         <v>61</v>
@@ -10903,7 +11032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="33" t="n">
         <v>449</v>
       </c>
@@ -10911,25 +11040,25 @@
         <v>47</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F167" s="36" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G167" s="36" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H167" s="44" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="I167" s="44" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J167" s="37" t="s">
         <v>61</v>
@@ -10950,7 +11079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33" t="n">
         <v>450</v>
       </c>
@@ -10961,22 +11090,22 @@
         <v>55</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F168" s="36" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G168" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="H168" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="I168" s="47" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="H168" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="I168" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="J168" s="37" t="s">
         <v>61</v>
@@ -10997,7 +11126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="33" t="n">
         <v>451</v>
       </c>
@@ -11008,22 +11137,22 @@
         <v>55</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F169" s="36" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="H169" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="I169" s="47" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="H169" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="I169" s="44" t="s">
+        <v>496</v>
       </c>
       <c r="J169" s="37" t="s">
         <v>61</v>
@@ -11033,7 +11162,9 @@
       <c r="M169" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="N169" s="37"/>
+      <c r="N169" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="O169" s="37"/>
       <c r="P169" s="37"/>
       <c r="Q169" s="37"/>
@@ -11057,10 +11188,10 @@
         <v>48</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F170" s="36"/>
       <c r="G170" s="36"/>
@@ -11091,13 +11222,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F171" s="36"/>
       <c r="G171" s="36"/>
@@ -11128,13 +11259,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
@@ -11165,13 +11296,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
@@ -11202,13 +11333,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F174" s="36"/>
       <c r="G174" s="36"/>
@@ -11239,13 +11370,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F175" s="36"/>
       <c r="G175" s="36"/>
@@ -11276,13 +11407,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F176" s="36"/>
       <c r="G176" s="36"/>
@@ -11313,13 +11444,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F177" s="36"/>
       <c r="G177" s="36"/>
@@ -11342,7 +11473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="33" t="n">
         <v>461</v>
       </c>
@@ -11350,23 +11481,23 @@
         <v>47</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
-      <c r="H178" s="57"/>
+      <c r="H178" s="55"/>
       <c r="I178" s="33"/>
       <c r="J178" s="37" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K178" s="37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L178" s="33"/>
       <c r="M178" s="37"/>
@@ -11391,13 +11522,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -11428,13 +11559,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -11465,13 +11596,13 @@
         <v>47</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
@@ -11502,13 +11633,13 @@
         <v>47</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -11542,10 +11673,10 @@
         <v>48</v>
       </c>
       <c r="D183" s="33" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E183" s="34" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
@@ -11568,7 +11699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="33" t="n">
         <v>467</v>
       </c>
@@ -11579,22 +11710,22 @@
         <v>55</v>
       </c>
       <c r="D184" s="33" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E184" s="34" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F184" s="36" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G184" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="H184" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="I184" s="47" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="H184" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="I184" s="44" t="s">
+        <v>530</v>
       </c>
       <c r="J184" s="37" t="s">
         <v>61</v>
@@ -11607,8 +11738,8 @@
       <c r="N184" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O184" s="47" t="s">
-        <v>528</v>
+      <c r="O184" s="44" t="s">
+        <v>531</v>
       </c>
       <c r="P184" s="37" t="s">
         <v>61</v>
@@ -11625,7 +11756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="n">
         <v>468</v>
       </c>
@@ -11633,31 +11764,31 @@
         <v>47</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E185" s="34" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F185" s="36" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H185" s="44" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I185" s="44" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="J185" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K185" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L185" s="33"/>
       <c r="M185" s="37" t="s">
@@ -11667,7 +11798,7 @@
         <v>61</v>
       </c>
       <c r="O185" s="44" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P185" s="37"/>
       <c r="Q185" s="37"/>
@@ -11688,13 +11819,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D186" s="33" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E186" s="34" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -11725,13 +11856,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -11762,13 +11893,13 @@
         <v>47</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F188" s="36"/>
       <c r="G188" s="36"/>
@@ -11799,13 +11930,13 @@
         <v>47</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E189" s="34" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="36"/>
@@ -11839,10 +11970,10 @@
         <v>48</v>
       </c>
       <c r="D190" s="40" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="36"/>
@@ -11873,13 +12004,13 @@
         <v>47</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="36"/>
@@ -11902,7 +12033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="33" t="n">
         <v>475</v>
       </c>
@@ -11910,31 +12041,31 @@
         <v>47</v>
       </c>
       <c r="C192" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F192" s="36" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G192" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="H192" s="53" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="H192" s="52" t="s">
+        <v>554</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J192" s="37" t="s">
         <v>61</v>
       </c>
       <c r="K192" s="37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L192" s="37"/>
       <c r="M192" s="37" t="s">
@@ -11944,12 +12075,20 @@
         <v>61</v>
       </c>
       <c r="O192" s="44" t="s">
-        <v>553</v>
-      </c>
-      <c r="P192" s="37"/>
-      <c r="Q192" s="37"/>
-      <c r="R192" s="37"/>
-      <c r="S192" s="37"/>
+        <v>556</v>
+      </c>
+      <c r="P192" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q192" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="R192" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S192" s="45" t="s">
+        <v>328</v>
+      </c>
       <c r="T192" s="37"/>
       <c r="U192" s="38"/>
       <c r="V192" s="39"/>
@@ -15978,6 +16117,7 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LDO"/>
+        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15991,7 +16131,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J192 M10:N192 P10:R192" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J192 M10:N192 P10:R47 P48:Q52 P53:R192" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16024,49 +16164,49 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="N169 I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -16090,7 +16230,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="N169 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16105,170 +16245,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>560</v>
+      <c r="A1" s="56" t="s">
+        <v>563</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>563</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>566</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>567</v>
+      <c r="B2" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="63" t="s">
-        <v>569</v>
+      <c r="C3" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>574</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>576</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>578</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>580</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
-        <v>582</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C10" s="65" t="s">
+      <c r="B9" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="60" t="s">
         <v>583</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>584</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>587</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>585</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>586</v>
+      <c r="A11" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>588</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="66"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="66"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17238,7 +17378,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N169 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17249,32 +17389,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>587</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>99</v>
+      <c r="A3" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111SIS4CAREXX/POLIS-NET_SRL/SIS4CARE/v1.1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="592">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2181,7 +2181,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2309,12 +2309,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2525,7 +2519,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2706,15 +2700,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2730,7 +2720,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2738,7 +2728,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2754,7 +2744,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3096,7 +3086,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="N169 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3110,32 +3100,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="285.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -3148,12 +3138,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3183,7 +3173,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="N169 B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4260,11 +4250,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
-      <selection pane="bottomRight" activeCell="N169" activeCellId="0" sqref="N169"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A126" activeCellId="0" sqref="A126"/>
+      <selection pane="bottomRight" activeCell="J128" activeCellId="0" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4482,7 +4472,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" s="30" customFormat="true" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="30" customFormat="true" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
         <v>24</v>
       </c>
@@ -4627,7 +4617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="n">
         <v>29</v>
       </c>
@@ -4762,7 +4752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="n">
         <v>32</v>
       </c>
@@ -4813,7 +4803,7 @@
       <c r="R15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="S15" s="47" t="s">
+      <c r="S15" s="37" t="s">
         <v>64</v>
       </c>
       <c r="T15" s="37"/>
@@ -4971,7 +4961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="n">
         <v>37</v>
       </c>
@@ -5069,7 +5059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="150.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="n">
         <v>39</v>
       </c>
@@ -5106,7 +5096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="n">
         <v>40</v>
       </c>
@@ -5157,7 +5147,7 @@
       <c r="R23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="47" t="s">
+      <c r="S23" s="37" t="s">
         <v>64</v>
       </c>
       <c r="T23" s="37"/>
@@ -5317,7 +5307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="n">
         <v>45</v>
       </c>
@@ -5411,7 +5401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="82.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="n">
         <v>47</v>
       </c>
@@ -5450,7 +5440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" s="49" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="48" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="n">
         <v>48</v>
       </c>
@@ -5468,7 +5458,7 @@
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="48"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="42"/>
       <c r="J31" s="37" t="s">
         <v>61</v>
@@ -5881,7 +5871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="n">
         <v>62</v>
       </c>
@@ -5918,7 +5908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="n">
         <v>64</v>
       </c>
@@ -5979,7 +5969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="n">
         <v>66</v>
       </c>
@@ -6040,7 +6030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="33" t="n">
         <v>67</v>
       </c>
@@ -6101,7 +6091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="33" t="n">
         <v>68</v>
       </c>
@@ -6162,7 +6152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="464.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="n">
         <v>69</v>
       </c>
@@ -6201,7 +6191,7 @@
       <c r="N47" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O47" s="50" t="s">
+      <c r="O47" s="49" t="s">
         <v>158</v>
       </c>
       <c r="P47" s="37" t="s">
@@ -6219,7 +6209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="n">
         <v>70</v>
       </c>
@@ -6278,7 +6268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="33" t="n">
         <v>71</v>
       </c>
@@ -6337,7 +6327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="n">
         <v>72</v>
       </c>
@@ -6396,7 +6386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="33" t="n">
         <v>73</v>
       </c>
@@ -6455,7 +6445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="33" t="n">
         <v>74</v>
       </c>
@@ -8808,7 +8798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="33" t="n">
         <v>146</v>
       </c>
@@ -8845,7 +8835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" s="49" customFormat="true" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" s="48" customFormat="true" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="33" t="n">
         <v>152</v>
       </c>
@@ -8870,7 +8860,7 @@
       <c r="H116" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="I116" s="51" t="s">
+      <c r="I116" s="50" t="s">
         <v>325</v>
       </c>
       <c r="J116" s="37" t="s">
@@ -8886,7 +8876,7 @@
       <c r="N116" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O116" s="52" t="s">
+      <c r="O116" s="51" t="s">
         <v>327</v>
       </c>
       <c r="P116" s="37" t="s">
@@ -8908,7 +8898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" s="49" customFormat="true" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="48" customFormat="true" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="33" t="n">
         <v>154</v>
       </c>
@@ -8933,7 +8923,7 @@
       <c r="H117" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="I117" s="51" t="s">
+      <c r="I117" s="50" t="s">
         <v>334</v>
       </c>
       <c r="J117" s="37" t="s">
@@ -8949,7 +8939,7 @@
       <c r="N117" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O117" s="53" t="s">
+      <c r="O117" s="52" t="s">
         <v>137</v>
       </c>
       <c r="P117" s="37" t="s">
@@ -8971,7 +8961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="33" t="n">
         <v>155</v>
       </c>
@@ -8993,7 +8983,7 @@
       <c r="G118" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="H118" s="54" t="s">
+      <c r="H118" s="53" t="s">
         <v>339</v>
       </c>
       <c r="I118" s="43" t="s">
@@ -9034,7 +9024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="33" t="n">
         <v>156</v>
       </c>
@@ -9056,7 +9046,7 @@
       <c r="G119" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="H119" s="54" t="s">
+      <c r="H119" s="53" t="s">
         <v>345</v>
       </c>
       <c r="I119" s="44" t="s">
@@ -9097,7 +9087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="33" t="n">
         <v>159</v>
       </c>
@@ -9119,7 +9109,7 @@
       <c r="G120" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="H120" s="54" t="s">
+      <c r="H120" s="53" t="s">
         <v>351</v>
       </c>
       <c r="I120" s="44" t="s">
@@ -9138,7 +9128,7 @@
       <c r="N120" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O120" s="50" t="s">
+      <c r="O120" s="49" t="s">
         <v>353</v>
       </c>
       <c r="P120" s="37" t="s">
@@ -9160,7 +9150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="33" t="n">
         <v>160</v>
       </c>
@@ -9182,7 +9172,7 @@
       <c r="G121" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="H121" s="54" t="s">
+      <c r="H121" s="53" t="s">
         <v>358</v>
       </c>
       <c r="I121" s="44" t="s">
@@ -9223,7 +9213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="344.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="33" t="n">
         <v>161</v>
       </c>
@@ -9245,7 +9235,7 @@
       <c r="G122" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="H122" s="54" t="s">
+      <c r="H122" s="53" t="s">
         <v>365</v>
       </c>
       <c r="I122" s="44" t="s">
@@ -9264,7 +9254,7 @@
       <c r="N122" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="O122" s="50" t="s">
+      <c r="O122" s="49" t="s">
         <v>367</v>
       </c>
       <c r="P122" s="37" t="s">
@@ -9286,7 +9276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="33" t="n">
         <v>162</v>
       </c>
@@ -9308,7 +9298,7 @@
       <c r="G123" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="H123" s="54" t="s">
+      <c r="H123" s="53" t="s">
         <v>372</v>
       </c>
       <c r="I123" s="44" t="s">
@@ -9347,7 +9337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="33" t="n">
         <v>163</v>
       </c>
@@ -9369,7 +9359,7 @@
       <c r="G124" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="H124" s="54" t="s">
+      <c r="H124" s="53" t="s">
         <v>379</v>
       </c>
       <c r="I124" s="44" t="s">
@@ -9410,7 +9400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="33" t="n">
         <v>164</v>
       </c>
@@ -9428,7 +9418,7 @@
       </c>
       <c r="F125" s="36"/>
       <c r="G125" s="36"/>
-      <c r="H125" s="48"/>
+      <c r="H125" s="47"/>
       <c r="I125" s="42"/>
       <c r="J125" s="37" t="s">
         <v>63</v>
@@ -9451,7 +9441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="33" t="n">
         <v>165</v>
       </c>
@@ -9469,7 +9459,7 @@
       </c>
       <c r="F126" s="36"/>
       <c r="G126" s="36"/>
-      <c r="H126" s="48"/>
+      <c r="H126" s="47"/>
       <c r="I126" s="42"/>
       <c r="J126" s="37" t="s">
         <v>63</v>
@@ -9492,7 +9482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="33" t="n">
         <v>166</v>
       </c>
@@ -9510,7 +9500,7 @@
       </c>
       <c r="F127" s="36"/>
       <c r="G127" s="36"/>
-      <c r="H127" s="48"/>
+      <c r="H127" s="47"/>
       <c r="I127" s="42"/>
       <c r="J127" s="37" t="s">
         <v>63</v>
@@ -9533,7 +9523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="33" t="n">
         <v>167</v>
       </c>
@@ -9551,10 +9541,14 @@
       </c>
       <c r="F128" s="36"/>
       <c r="G128" s="36"/>
-      <c r="H128" s="48"/>
+      <c r="H128" s="47"/>
       <c r="I128" s="42"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
+      <c r="J128" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K128" s="37" t="s">
+        <v>383</v>
+      </c>
       <c r="L128" s="37"/>
       <c r="M128" s="37"/>
       <c r="N128" s="37"/>
@@ -9570,7 +9564,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="33" t="n">
         <v>168</v>
       </c>
@@ -9627,7 +9621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="33" t="n">
         <v>169</v>
       </c>
@@ -10985,7 +10979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="33" t="n">
         <v>448</v>
       </c>
@@ -11032,7 +11026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="33" t="n">
         <v>449</v>
       </c>
@@ -11079,7 +11073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="33" t="n">
         <v>450</v>
       </c>
@@ -11126,7 +11120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="33" t="n">
         <v>451</v>
       </c>
@@ -11473,7 +11467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="33" t="n">
         <v>461</v>
       </c>
@@ -11491,7 +11485,7 @@
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
-      <c r="H178" s="55"/>
+      <c r="H178" s="54"/>
       <c r="I178" s="33"/>
       <c r="J178" s="37" t="s">
         <v>63</v>
@@ -11699,7 +11693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="33" t="n">
         <v>467</v>
       </c>
@@ -11756,7 +11750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="33" t="n">
         <v>468</v>
       </c>
@@ -12033,7 +12027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="33" t="n">
         <v>475</v>
       </c>
@@ -12055,7 +12049,7 @@
       <c r="G192" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="H192" s="52" t="s">
+      <c r="H192" s="51" t="s">
         <v>554</v>
       </c>
       <c r="I192" s="3" t="s">
@@ -16164,7 +16158,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="N169 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16230,7 +16224,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="N169 A3"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16245,7 +16239,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>563</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -16257,158 +16251,158 @@
       <c r="D1" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="60" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>573</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>577</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>579</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>581</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="61" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="58" t="s">
         <v>585</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="60" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>588</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="61" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="64"/>
+      <c r="D12" s="63"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="64"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17378,7 +17372,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N169 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17389,32 +17383,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
